--- a/Dp and Graph Cp.xlsx
+++ b/Dp and Graph Cp.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SWRAJ KANT SHARMA\Desktop\Competitive Prog\Dp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SWRAJ KANT SHARMA\Desktop\Practice_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D210FFD-0801-450C-A60B-A8E92CB572C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFAA99E-E2B8-4746-B27E-3ADCCC162726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{676E50BF-78A7-4A83-A081-539C5922F240}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{676E50BF-78A7-4A83-A081-539C5922F240}"/>
   </bookViews>
   <sheets>
     <sheet name="Dp and Graph" sheetId="1" r:id="rId1"/>
     <sheet name="Competitive programming" sheetId="3" r:id="rId2"/>
+    <sheet name="Kartik arora cp sheet" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="116">
   <si>
     <t>Tiling Problem -1 (Introductory Problem) (1d-dp)</t>
   </si>
@@ -479,6 +480,99 @@
   </si>
   <si>
     <t>Course Schedule (Cycle Detection in a directed Graph)</t>
+  </si>
+  <si>
+    <t>Count Ways(coding ninjas)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dp on Graph</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:-</t>
+    </r>
+  </si>
+  <si>
+    <t>FG-operation(Atcoder)</t>
+  </si>
+  <si>
+    <t>Knapsack Based</t>
+  </si>
+  <si>
+    <t>BFS in a Graph (Coding ninjas)</t>
+  </si>
+  <si>
+    <t>Implementation with Observation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Print the binary strings as well </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                              </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Number Theory</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                           </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   Bitmasking</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                      </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  CodeForces-Specialist</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -620,7 +714,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -650,6 +744,7 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -965,10 +1060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139970D0-FC94-4441-AAB1-2B31146F0F0C}">
-  <dimension ref="A2:D199"/>
+  <dimension ref="A2:D203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="96" workbookViewId="0">
-      <selection activeCell="C140" sqref="C140"/>
+    <sheetView topLeftCell="A6" zoomScale="96" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1000,9 +1095,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
         <v>19</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
@@ -1054,7 +1152,7 @@
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1172,39 +1270,47 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B56" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.3">
@@ -1274,6 +1380,16 @@
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B88" s="14"/>
     </row>
+    <row r="93" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B93" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B94" s="20" t="s">
+        <v>105</v>
+      </c>
+    </row>
     <row r="103" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="B103" s="3" t="s">
         <v>88</v>
@@ -1313,33 +1429,39 @@
         <v>68</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B113" s="12" t="s">
+    <row r="113" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A113" s="1"/>
+      <c r="B113" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B114" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B114" s="8" t="s">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B115" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B115" s="11" t="s">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B116" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B116" s="12" t="s">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B117" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B117" s="17" t="s">
+    <row r="118" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B118" s="17" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B118" s="14"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B119" s="14"/>
@@ -1347,196 +1469,210 @@
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B120" s="14"/>
     </row>
-    <row r="121" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A121" s="1" t="s">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B121" s="14"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B122" s="14"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B123" s="14"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B124" s="14"/>
+    </row>
+    <row r="125" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B122" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B123" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B124" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B125" s="8" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B126" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B127" s="12" t="s">
-        <v>13</v>
+      <c r="B127" s="8" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B128" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="50.4" x14ac:dyDescent="0.4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B130" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>59</v>
+      <c r="B130" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B131" s="8" t="s">
-        <v>61</v>
+      <c r="B131" s="12" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B132" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="50.4" x14ac:dyDescent="0.4">
+      <c r="B133" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B134" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B135" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B136" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B133" s="12" t="s">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B137" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B134" s="14"/>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B135" s="14"/>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B136" s="14"/>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B137" s="14"/>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B138" s="14"/>
-    </row>
-    <row r="139" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>69</v>
-      </c>
+    <row r="138" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B138" s="20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B139" s="14"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B140" s="15" t="s">
-        <v>14</v>
-      </c>
+      <c r="B140" s="14"/>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B141" s="14"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B142" s="8" t="s">
+      <c r="B142" s="14"/>
+    </row>
+    <row r="143" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B144" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B145" s="14"/>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B146" s="8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B143" s="8" t="s">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B147" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B144" s="8" t="s">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B148" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B145" s="12" t="s">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B149" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B146" s="12" t="s">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B150" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="150" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="3" t="s">
+    <row r="154" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B151" s="8" t="s">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B155" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B152" s="12" t="s">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B156" s="12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B153" s="11" t="s">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B157" s="11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B154" s="11" t="s">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B158" s="11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B158" s="3" t="s">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B162" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B159" s="8" t="s">
+    <row r="163" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B163" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C159" s="18" t="s">
+      <c r="C163" s="18" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B160" s="8" t="s">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B164" s="8" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B161" s="19" t="s">
+    <row r="165" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B165" s="19" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
+    <row r="173" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
+    <row r="174" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
         <v>71</v>
       </c>
-      <c r="B170" s="10" t="s">
+      <c r="B174" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B199" s="3" t="s">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B203" s="3" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1577,67 +1713,72 @@
     <hyperlink ref="B106" r:id="rId33" xr:uid="{886E0BBE-863A-4329-B45D-3685DC2CA044}"/>
     <hyperlink ref="B107" r:id="rId34" xr:uid="{D6EF93A9-5413-4E51-AF9A-0C512712CC73}"/>
     <hyperlink ref="B108" r:id="rId35" xr:uid="{B3F7F07E-E135-4241-9B08-83DD61BF6BE1}"/>
-    <hyperlink ref="B116" r:id="rId36" xr:uid="{39437EB9-5ED0-487D-894A-9B78AE5293A1}"/>
+    <hyperlink ref="B117" r:id="rId36" xr:uid="{39437EB9-5ED0-487D-894A-9B78AE5293A1}"/>
     <hyperlink ref="B45" r:id="rId37" xr:uid="{1B7443A9-CFAF-45E5-A78B-36BFE340A8A4}"/>
     <hyperlink ref="C45" r:id="rId38" xr:uid="{4F1016AC-FADB-4CAE-96D5-59AB72F19D2C}"/>
-    <hyperlink ref="B113" r:id="rId39" xr:uid="{7133A624-41D7-44AF-9E6F-9E274DB9BB20}"/>
-    <hyperlink ref="B114" r:id="rId40" location="questions" xr:uid="{828115FF-76E7-4287-96EE-64E4C8890506}"/>
-    <hyperlink ref="B115" r:id="rId41" xr:uid="{F64D5C1D-C62C-41AE-B585-653E7D0E5398}"/>
-    <hyperlink ref="B122" r:id="rId42" xr:uid="{BDFE4FA6-2B07-46FB-96D6-C71D62BF5402}"/>
-    <hyperlink ref="B124" r:id="rId43" display="Largest Island (DFS)" xr:uid="{0D87E924-D559-4178-88E9-C24F43296D3B}"/>
-    <hyperlink ref="B126" r:id="rId44" xr:uid="{DF885FC2-02F7-4BA5-8B25-9A9438DE93AD}"/>
-    <hyperlink ref="B127" r:id="rId45" xr:uid="{3F16CC60-2B7F-4D6D-8F70-FCA77C20B6FC}"/>
-    <hyperlink ref="B140" r:id="rId46" xr:uid="{C0D5EBA8-833D-4376-A7A0-C4901F3A93BC}"/>
-    <hyperlink ref="B142" r:id="rId47" display="Course Schedule " xr:uid="{433062C0-0C45-488D-8B65-3584B6597A06}"/>
-    <hyperlink ref="B143" r:id="rId48" xr:uid="{2BCC67C3-68FB-4BDA-A903-4D75D9E5187D}"/>
-    <hyperlink ref="B145" r:id="rId49" xr:uid="{7F788B88-42B7-4553-A053-DEAEE94E1B52}"/>
-    <hyperlink ref="B144" r:id="rId50" xr:uid="{8D801D27-2D97-42AD-8627-58F5E7CB992D}"/>
-    <hyperlink ref="B146" r:id="rId51" xr:uid="{190BB666-52B8-4FD8-8751-E9055BF9B1ED}"/>
+    <hyperlink ref="B114" r:id="rId39" xr:uid="{7133A624-41D7-44AF-9E6F-9E274DB9BB20}"/>
+    <hyperlink ref="B115" r:id="rId40" location="questions" xr:uid="{828115FF-76E7-4287-96EE-64E4C8890506}"/>
+    <hyperlink ref="B116" r:id="rId41" xr:uid="{F64D5C1D-C62C-41AE-B585-653E7D0E5398}"/>
+    <hyperlink ref="B126" r:id="rId42" xr:uid="{BDFE4FA6-2B07-46FB-96D6-C71D62BF5402}"/>
+    <hyperlink ref="B128" r:id="rId43" display="Largest Island (DFS)" xr:uid="{0D87E924-D559-4178-88E9-C24F43296D3B}"/>
+    <hyperlink ref="B130" r:id="rId44" xr:uid="{DF885FC2-02F7-4BA5-8B25-9A9438DE93AD}"/>
+    <hyperlink ref="B131" r:id="rId45" xr:uid="{3F16CC60-2B7F-4D6D-8F70-FCA77C20B6FC}"/>
+    <hyperlink ref="B144" r:id="rId46" xr:uid="{C0D5EBA8-833D-4376-A7A0-C4901F3A93BC}"/>
+    <hyperlink ref="B146" r:id="rId47" display="Course Schedule " xr:uid="{433062C0-0C45-488D-8B65-3584B6597A06}"/>
+    <hyperlink ref="B147" r:id="rId48" xr:uid="{2BCC67C3-68FB-4BDA-A903-4D75D9E5187D}"/>
+    <hyperlink ref="B149" r:id="rId49" xr:uid="{7F788B88-42B7-4553-A053-DEAEE94E1B52}"/>
+    <hyperlink ref="B148" r:id="rId50" xr:uid="{8D801D27-2D97-42AD-8627-58F5E7CB992D}"/>
+    <hyperlink ref="B150" r:id="rId51" xr:uid="{190BB666-52B8-4FD8-8751-E9055BF9B1ED}"/>
     <hyperlink ref="B50" r:id="rId52" xr:uid="{0E164469-6B71-4973-ABA0-2634F0D859C9}"/>
     <hyperlink ref="B51" r:id="rId53" xr:uid="{4DE6943F-14A3-4EBE-B828-7138B0C29675}"/>
     <hyperlink ref="B52" r:id="rId54" xr:uid="{9D324F52-69A1-47C7-94FD-E32371E256E0}"/>
     <hyperlink ref="B65" r:id="rId55" xr:uid="{3FC10AA8-89B4-4A8E-8A89-90035519C7AD}"/>
-    <hyperlink ref="B128" r:id="rId56" xr:uid="{2C2E9E5C-5BF3-428C-BFF4-1A4C3266B83D}"/>
+    <hyperlink ref="B132" r:id="rId56" xr:uid="{2C2E9E5C-5BF3-428C-BFF4-1A4C3266B83D}"/>
     <hyperlink ref="B30" r:id="rId57" xr:uid="{7D4E426D-2FF9-4276-82F3-5E040D81B9CB}"/>
     <hyperlink ref="C43" r:id="rId58" xr:uid="{5355EEC8-3E21-43EE-ADD2-DF8D474C67E3}"/>
     <hyperlink ref="C7" r:id="rId59" xr:uid="{CA575981-E951-44B7-81CF-33E7103CDB71}"/>
-    <hyperlink ref="B129" r:id="rId60" xr:uid="{7F2F561A-66F1-432A-A0DF-F9D9A1A38F28}"/>
-    <hyperlink ref="B130" r:id="rId61" display="Word Search-&gt;2(Leetcode 212)" xr:uid="{0A139F23-015D-4B6A-BC5E-E2342BBCC6B4}"/>
-    <hyperlink ref="B131" r:id="rId62" xr:uid="{6B893F62-2E63-4F37-AFB3-26066A55421C}"/>
-    <hyperlink ref="B123" r:id="rId63" xr:uid="{FC739872-F8BB-4DEA-85A5-ABEBFCC1CC2E}"/>
-    <hyperlink ref="B125" r:id="rId64" xr:uid="{A700F524-346C-46CA-83A7-4552941B3B98}"/>
-    <hyperlink ref="B132" r:id="rId65" xr:uid="{5DE2F2FA-2E17-4A52-ACD4-61B15A04A5B0}"/>
-    <hyperlink ref="B133" r:id="rId66" xr:uid="{798A1599-71F4-46B0-AD28-D83F307BE681}"/>
+    <hyperlink ref="B133" r:id="rId60" xr:uid="{7F2F561A-66F1-432A-A0DF-F9D9A1A38F28}"/>
+    <hyperlink ref="B134" r:id="rId61" display="Word Search-&gt;2(Leetcode 212)" xr:uid="{0A139F23-015D-4B6A-BC5E-E2342BBCC6B4}"/>
+    <hyperlink ref="B135" r:id="rId62" xr:uid="{6B893F62-2E63-4F37-AFB3-26066A55421C}"/>
+    <hyperlink ref="B127" r:id="rId63" xr:uid="{FC739872-F8BB-4DEA-85A5-ABEBFCC1CC2E}"/>
+    <hyperlink ref="B129" r:id="rId64" xr:uid="{A700F524-346C-46CA-83A7-4552941B3B98}"/>
+    <hyperlink ref="B136" r:id="rId65" xr:uid="{5DE2F2FA-2E17-4A52-ACD4-61B15A04A5B0}"/>
+    <hyperlink ref="B137" r:id="rId66" xr:uid="{798A1599-71F4-46B0-AD28-D83F307BE681}"/>
     <hyperlink ref="B87" r:id="rId67" xr:uid="{DD9A560B-E5C7-4E60-8446-22394935D36C}"/>
-    <hyperlink ref="B170" r:id="rId68" xr:uid="{03B006FB-BD99-49E8-B0CF-A1411CDCD75D}"/>
-    <hyperlink ref="B151" r:id="rId69" xr:uid="{A69453EE-8300-4DB2-821E-1D1CEC03BB95}"/>
-    <hyperlink ref="B152" r:id="rId70" xr:uid="{5346D678-00B2-4954-B278-FAC87EFE38AA}"/>
+    <hyperlink ref="B174" r:id="rId68" xr:uid="{03B006FB-BD99-49E8-B0CF-A1411CDCD75D}"/>
+    <hyperlink ref="B155" r:id="rId69" xr:uid="{A69453EE-8300-4DB2-821E-1D1CEC03BB95}"/>
+    <hyperlink ref="B156" r:id="rId70" xr:uid="{5346D678-00B2-4954-B278-FAC87EFE38AA}"/>
     <hyperlink ref="B53" r:id="rId71" xr:uid="{6FFD9D79-5FE0-4BD1-A387-04EF18E588EB}"/>
     <hyperlink ref="B66" r:id="rId72" xr:uid="{24A04855-787B-4E35-AED9-A8DF426F14C3}"/>
     <hyperlink ref="B54" r:id="rId73" xr:uid="{0B44ABF3-C704-4118-A5A4-AB42831E4CAB}"/>
     <hyperlink ref="B67" r:id="rId74" xr:uid="{BDB1D287-B4F2-4333-8B69-345256536C30}"/>
-    <hyperlink ref="B153" r:id="rId75" xr:uid="{FE3C24C2-8F6F-423E-9318-8762A839D7AB}"/>
-    <hyperlink ref="B154" r:id="rId76" xr:uid="{82D6D445-B836-401F-9630-962E607CF4B4}"/>
+    <hyperlink ref="B157" r:id="rId75" xr:uid="{FE3C24C2-8F6F-423E-9318-8762A839D7AB}"/>
+    <hyperlink ref="B158" r:id="rId76" xr:uid="{82D6D445-B836-401F-9630-962E607CF4B4}"/>
     <hyperlink ref="B68" r:id="rId77" xr:uid="{251EF257-5299-4E6B-B4E4-308B88F56A4D}"/>
     <hyperlink ref="B55" r:id="rId78" xr:uid="{24CB3186-B8BE-4D3C-A4C5-1A0378491CCC}"/>
-    <hyperlink ref="B117" r:id="rId79" xr:uid="{ED899755-C819-4A57-B27A-E0E1A40206BE}"/>
-    <hyperlink ref="B159" r:id="rId80" xr:uid="{4B414C58-F7E3-443C-8355-8EDC4821C8E2}"/>
-    <hyperlink ref="B160" r:id="rId81" xr:uid="{0CB65202-C1D3-4A06-9AC9-2142119EADC8}"/>
-    <hyperlink ref="B161" r:id="rId82" xr:uid="{7763E607-6CAD-452E-A076-302FC9BE812F}"/>
+    <hyperlink ref="B118" r:id="rId79" xr:uid="{ED899755-C819-4A57-B27A-E0E1A40206BE}"/>
+    <hyperlink ref="B163" r:id="rId80" xr:uid="{4B414C58-F7E3-443C-8355-8EDC4821C8E2}"/>
+    <hyperlink ref="B164" r:id="rId81" xr:uid="{0CB65202-C1D3-4A06-9AC9-2142119EADC8}"/>
+    <hyperlink ref="B165" r:id="rId82" xr:uid="{7763E607-6CAD-452E-A076-302FC9BE812F}"/>
     <hyperlink ref="B31" r:id="rId83" xr:uid="{AE173E16-AC06-436F-8C00-F4EF327A82C5}"/>
     <hyperlink ref="B76" r:id="rId84" xr:uid="{87CBDE01-A2ED-44D2-A8AB-078779B86EFD}"/>
+    <hyperlink ref="B138" r:id="rId85" xr:uid="{69229D0E-3C31-4FE6-80D9-F3939879E6AE}"/>
+    <hyperlink ref="B94" r:id="rId86" xr:uid="{9925B627-2A9E-4561-9D20-D941B5F4FF85}"/>
+    <hyperlink ref="B56" r:id="rId87" xr:uid="{64773702-C55B-4516-9757-86C269D7620D}"/>
+    <hyperlink ref="B113" r:id="rId88" xr:uid="{24AE266C-70F3-45D2-BC7A-95D7292B8BAE}"/>
+    <hyperlink ref="C5" r:id="rId89" xr:uid="{5967F330-98B5-492F-9348-85B5EC76C7C7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId85"/>
+  <pageSetup orientation="portrait" r:id="rId90"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8E57B7-0CA7-43E5-93E8-490557EFD0CE}">
-  <dimension ref="B2"/>
+  <dimension ref="B2:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1653,8 +1794,49 @@
         <v>93</v>
       </c>
     </row>
+    <row r="14" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65141992-1E9C-4E4B-B54F-022A0BC8019E}">
+  <dimension ref="B2:B39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="71" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Dp and Graph Cp.xlsx
+++ b/Dp and Graph Cp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SWRAJ KANT SHARMA\Desktop\Practice_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFAA99E-E2B8-4746-B27E-3ADCCC162726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709DDE10-3CFF-470B-AE75-8D0192002C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{676E50BF-78A7-4A83-A081-539C5922F240}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{676E50BF-78A7-4A83-A081-539C5922F240}"/>
   </bookViews>
   <sheets>
     <sheet name="Dp and Graph" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="123">
   <si>
     <t>Tiling Problem -1 (Introductory Problem) (1d-dp)</t>
   </si>
@@ -574,12 +574,34 @@
       <t xml:space="preserve">  CodeForces-Specialist</t>
     </r>
   </si>
+  <si>
+    <t>Most Stones Removed from same row or column</t>
+  </si>
+  <si>
+    <t>More Optimization</t>
+  </si>
+  <si>
+    <t>Flower Painting with no adjacent</t>
+  </si>
+  <si>
+    <t>Parking(Codeforces)(DSU)</t>
+  </si>
+  <si>
+    <t>Experience (Codeforces)(DSU)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find if a path if exist in a graph </t>
+  </si>
+  <si>
+    <t>Easy Question to revise DFS, DSU,BFS and
+Iterative DFS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -674,6 +696,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -714,7 +750,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -745,6 +781,10 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1062,8 +1102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139970D0-FC94-4441-AAB1-2B31146F0F0C}">
   <dimension ref="A2:D203"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="96" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="96" workbookViewId="0">
+      <selection activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1475,8 +1515,13 @@
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B122" s="14"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B123" s="14"/>
+    <row r="123" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B123" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C123" s="18" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B124" s="14"/>
@@ -1560,8 +1605,10 @@
         <v>105</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B139" s="14"/>
+    <row r="139" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B139" s="20" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B140" s="14"/>
@@ -1656,6 +1703,24 @@
     <row r="165" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B165" s="19" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B166" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C166" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B169" s="24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B170" s="25" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -1767,9 +1832,14 @@
     <hyperlink ref="B56" r:id="rId87" xr:uid="{64773702-C55B-4516-9757-86C269D7620D}"/>
     <hyperlink ref="B113" r:id="rId88" xr:uid="{24AE266C-70F3-45D2-BC7A-95D7292B8BAE}"/>
     <hyperlink ref="C5" r:id="rId89" xr:uid="{5967F330-98B5-492F-9348-85B5EC76C7C7}"/>
+    <hyperlink ref="B166" r:id="rId90" xr:uid="{DBC012B9-2FE1-4A1F-81A5-E12D0221311F}"/>
+    <hyperlink ref="B139" r:id="rId91" xr:uid="{A62F2FC4-AED0-400F-996E-7B8C6CBA1839}"/>
+    <hyperlink ref="B169" r:id="rId92" xr:uid="{43C44FE0-B674-4C68-AEB4-CF3538DC7436}"/>
+    <hyperlink ref="B170" r:id="rId93" xr:uid="{BF76033A-3A3B-488F-92AE-980E5BB33DAC}"/>
+    <hyperlink ref="B123" r:id="rId94" xr:uid="{DE39EA76-4DAF-4A4D-9FFA-47FB3C3C8930}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId90"/>
+  <pageSetup orientation="portrait" r:id="rId95"/>
 </worksheet>
 </file>
 
@@ -1814,7 +1884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65141992-1E9C-4E4B-B54F-022A0BC8019E}">
   <dimension ref="B2:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/Dp and Graph Cp.xlsx
+++ b/Dp and Graph Cp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SWRAJ KANT SHARMA\Desktop\Practice_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709DDE10-3CFF-470B-AE75-8D0192002C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0BFBEE-0147-4000-BFDB-023939176777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{676E50BF-78A7-4A83-A081-539C5922F240}"/>
   </bookViews>
@@ -590,11 +590,11 @@
     <t>Experience (Codeforces)(DSU)</t>
   </si>
   <si>
-    <t xml:space="preserve">Find if a path if exist in a graph </t>
-  </si>
-  <si>
     <t>Easy Question to revise DFS, DSU,BFS and
 Iterative DFS</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -1102,7 +1102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139970D0-FC94-4441-AAB1-2B31146F0F0C}">
   <dimension ref="A2:D203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="96" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="96" workbookViewId="0">
       <selection activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
@@ -1517,10 +1517,10 @@
     </row>
     <row r="123" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B123" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C123" s="18" t="s">
         <v>121</v>
-      </c>
-      <c r="C123" s="18" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
@@ -1836,7 +1836,7 @@
     <hyperlink ref="B139" r:id="rId91" xr:uid="{A62F2FC4-AED0-400F-996E-7B8C6CBA1839}"/>
     <hyperlink ref="B169" r:id="rId92" xr:uid="{43C44FE0-B674-4C68-AEB4-CF3538DC7436}"/>
     <hyperlink ref="B170" r:id="rId93" xr:uid="{BF76033A-3A3B-488F-92AE-980E5BB33DAC}"/>
-    <hyperlink ref="B123" r:id="rId94" xr:uid="{DE39EA76-4DAF-4A4D-9FFA-47FB3C3C8930}"/>
+    <hyperlink ref="B123" r:id="rId94" display="Find if a path if exist in a graph " xr:uid="{DE39EA76-4DAF-4A4D-9FFA-47FB3C3C8930}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId95"/>
